--- a/final_project_data.xlsx
+++ b/final_project_data.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusg/Desktop/msa-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="29280" windowHeight="22640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="13480" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSA GA" sheetId="1" r:id="rId1"/>
     <sheet name="MSA CO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -192,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -227,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -404,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,12 +413,12 @@
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -518,7 +513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -708,7 +703,7 @@
         <v>12164</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -797,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -886,7 +881,7 @@
         <v>-4686</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -975,7 +970,7 @@
         <v>35570</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>-2887</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1165,7 @@
         <v>26917</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1295,7 @@
         <v>-2252</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1365,18 +1360,23 @@
         <v>18498</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1384,16 +1384,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>35700</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1653,17 +1653,138 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>-4635</v>
+      </c>
+      <c r="C6">
+        <v>-4625</v>
+      </c>
+      <c r="D6">
+        <v>-4740</v>
+      </c>
+      <c r="E6">
+        <v>-4625</v>
+      </c>
+      <c r="F6">
+        <v>-4740</v>
+      </c>
+      <c r="G6">
+        <v>-4716</v>
+      </c>
+      <c r="H6">
+        <v>-4821</v>
+      </c>
+      <c r="I6">
+        <v>-4658</v>
+      </c>
+      <c r="J6">
+        <v>-4774</v>
+      </c>
+      <c r="K6">
+        <v>-4884</v>
+      </c>
+      <c r="L6">
+        <v>-4674</v>
+      </c>
+      <c r="M6">
+        <v>-4738</v>
+      </c>
+      <c r="N6">
+        <v>-4655</v>
+      </c>
+      <c r="O6">
+        <v>-4604</v>
+      </c>
+      <c r="P6">
+        <v>-4766</v>
+      </c>
+      <c r="Q6">
+        <v>-4686</v>
+      </c>
+      <c r="R6">
+        <f>-4637</f>
+        <v>-4637</v>
+      </c>
+      <c r="S6">
+        <v>-4675</v>
+      </c>
+      <c r="T6">
+        <v>-4644</v>
+      </c>
+      <c r="U6">
+        <v>-4577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>173600</v>
+      </c>
+      <c r="C7">
+        <v>130900</v>
+      </c>
+      <c r="D7">
+        <v>11760</v>
+      </c>
+      <c r="E7">
+        <v>130900</v>
+      </c>
+      <c r="F7">
+        <v>117600</v>
+      </c>
+      <c r="G7">
+        <v>223300</v>
+      </c>
+      <c r="H7">
+        <v>108500</v>
+      </c>
+      <c r="I7">
+        <v>93800</v>
+      </c>
+      <c r="J7">
+        <v>130900</v>
+      </c>
+      <c r="K7">
+        <v>120400</v>
+      </c>
+      <c r="L7">
+        <v>89600</v>
+      </c>
+      <c r="M7">
+        <v>238700</v>
+      </c>
+      <c r="N7">
+        <v>215600</v>
+      </c>
+      <c r="O7">
+        <v>285600</v>
+      </c>
+      <c r="P7">
+        <v>279300</v>
+      </c>
+      <c r="Q7">
+        <v>384300</v>
+      </c>
+      <c r="R7">
+        <v>156100</v>
+      </c>
+      <c r="S7">
+        <v>291200</v>
+      </c>
+      <c r="T7">
+        <v>176400</v>
+      </c>
+      <c r="U7">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1728,17 +1849,137 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>-2792</v>
+      </c>
+      <c r="C10">
+        <v>-2858</v>
+      </c>
+      <c r="D10">
+        <v>-2754</v>
+      </c>
+      <c r="E10">
+        <v>-2709</v>
+      </c>
+      <c r="F10">
+        <v>-2738</v>
+      </c>
+      <c r="G10">
+        <v>-2677</v>
+      </c>
+      <c r="H10">
+        <v>-2812</v>
+      </c>
+      <c r="I10">
+        <v>-2700</v>
+      </c>
+      <c r="J10">
+        <v>-2826</v>
+      </c>
+      <c r="K10">
+        <v>-2699</v>
+      </c>
+      <c r="L10">
+        <v>-2815</v>
+      </c>
+      <c r="M10">
+        <v>-2863</v>
+      </c>
+      <c r="N10">
+        <v>-2728</v>
+      </c>
+      <c r="O10">
+        <v>-2906</v>
+      </c>
+      <c r="P10">
+        <v>-2792</v>
+      </c>
+      <c r="Q10">
+        <v>-2818</v>
+      </c>
+      <c r="R10">
+        <v>-2695</v>
+      </c>
+      <c r="S10">
+        <v>-2904</v>
+      </c>
+      <c r="T10">
+        <v>-2796</v>
+      </c>
+      <c r="U10">
+        <v>-2804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>120400</v>
+      </c>
+      <c r="C11">
+        <v>83600</v>
+      </c>
+      <c r="D11">
+        <v>85200</v>
+      </c>
+      <c r="E11">
+        <v>153200</v>
+      </c>
+      <c r="F11">
+        <v>78400</v>
+      </c>
+      <c r="G11">
+        <v>120400</v>
+      </c>
+      <c r="H11">
+        <v>120000</v>
+      </c>
+      <c r="I11">
+        <v>86800</v>
+      </c>
+      <c r="J11">
+        <v>72000</v>
+      </c>
+      <c r="K11">
+        <v>84400</v>
+      </c>
+      <c r="L11">
+        <v>91600</v>
+      </c>
+      <c r="M11">
+        <v>80400</v>
+      </c>
+      <c r="N11">
+        <v>83600</v>
+      </c>
+      <c r="O11">
+        <v>60000</v>
+      </c>
+      <c r="P11">
+        <v>56000</v>
+      </c>
+      <c r="Q11">
+        <v>96400</v>
+      </c>
+      <c r="R11">
+        <v>101600</v>
+      </c>
+      <c r="S11">
+        <v>51200</v>
+      </c>
+      <c r="T11">
+        <v>84000</v>
+      </c>
+      <c r="U11">
+        <v>77200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +2109,7 @@
         <v>-2278</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1936,5 +2177,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>